--- a/分类名录.xlsx
+++ b/分类名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="分类种类" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="球团矿" sheetId="11" r:id="rId8"/>
     <sheet name="非主流资源" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="539">
   <si>
     <t>PB粉</t>
   </si>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <t>津布巴粉</t>
-  </si>
-  <si>
-    <t>澳混</t>
-  </si>
-  <si>
-    <t>FMG西部粉</t>
   </si>
   <si>
     <t>超特</t>
@@ -414,9 +408,6 @@
     <t>秘鲁大粒度块矿</t>
   </si>
   <si>
-    <t>秘鲁新区大粒度</t>
-  </si>
-  <si>
     <t>铁精粉</t>
   </si>
   <si>
@@ -444,9 +435,6 @@
     <t>马来粗粉</t>
   </si>
   <si>
-    <t>PMI块</t>
-  </si>
-  <si>
     <t>巴西块</t>
   </si>
   <si>
@@ -456,9 +444,6 @@
     <t>马来粉1、3、8仓</t>
   </si>
   <si>
-    <t>马来矿</t>
-  </si>
-  <si>
     <t>墨西哥粉</t>
   </si>
   <si>
@@ -495,15 +480,9 @@
     <t>秘鲁精粉</t>
   </si>
   <si>
-    <t>南非矿</t>
-  </si>
-  <si>
     <t>巴西块矿</t>
   </si>
   <si>
-    <t xml:space="preserve">杨迪粉  </t>
-  </si>
-  <si>
     <t>澳大利亚西部粉</t>
   </si>
   <si>
@@ -555,15 +534,6 @@
     <t>印尼铁矿</t>
   </si>
   <si>
-    <t>麦克块</t>
-  </si>
-  <si>
-    <t>恰那块</t>
-  </si>
-  <si>
-    <t>巴西烧结粉</t>
-  </si>
-  <si>
     <t>巴粗粉</t>
   </si>
   <si>
@@ -576,46 +546,13 @@
     <t>毛里塔尼亚块</t>
   </si>
   <si>
-    <t>高硅烧结粉</t>
-  </si>
-  <si>
-    <t>杨地粉</t>
-  </si>
-  <si>
     <t>智利精粉</t>
   </si>
   <si>
-    <t>巴卡粉1</t>
-  </si>
-  <si>
-    <t>扬地粉</t>
-  </si>
-  <si>
-    <t>今布巴粉</t>
-  </si>
-  <si>
-    <t>焦煤</t>
-  </si>
-  <si>
     <t>马来西亚粉</t>
   </si>
   <si>
-    <t>菲律宾块</t>
-  </si>
-  <si>
     <t>印度球团</t>
-  </si>
-  <si>
-    <t>马来块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高锰澳粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马来粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贸易商</t>
@@ -1219,6 +1156,15 @@
     <t>中国中材进出口有限公司</t>
   </si>
   <si>
+    <t>中建材供应链管理有限公司</t>
+  </si>
+  <si>
+    <t>中建材国际物产有限公司</t>
+  </si>
+  <si>
+    <t>中建材集团进出口公司</t>
+  </si>
+  <si>
     <t>中联国际</t>
   </si>
   <si>
@@ -1235,6 +1181,477 @@
   </si>
   <si>
     <t>中信金属有限公司</t>
+  </si>
+  <si>
+    <t>俄罗斯精粉</t>
+  </si>
+  <si>
+    <t>国内精粉</t>
+  </si>
+  <si>
+    <t>海南精粉</t>
+  </si>
+  <si>
+    <t>韩国精粉</t>
+  </si>
+  <si>
+    <t>马来精粉</t>
+  </si>
+  <si>
+    <t>南非精粉</t>
+  </si>
+  <si>
+    <t>新西兰精粉</t>
+  </si>
+  <si>
+    <t>澳洲球团</t>
+  </si>
+  <si>
+    <t>球团矿</t>
+  </si>
+  <si>
+    <t>伊朗球团碎</t>
+  </si>
+  <si>
+    <t>ATLAS 粉</t>
+  </si>
+  <si>
+    <t>CSN巴粗</t>
+  </si>
+  <si>
+    <t>CSN块</t>
+  </si>
+  <si>
+    <t>FMG块</t>
+  </si>
+  <si>
+    <t>RPX粉</t>
+  </si>
+  <si>
+    <t>巴西筛分块</t>
+  </si>
+  <si>
+    <t>北非粉</t>
+  </si>
+  <si>
+    <t>朝鲜粉</t>
+  </si>
+  <si>
+    <t>朝鲜块矿</t>
+  </si>
+  <si>
+    <t>菲律宾原矿</t>
+  </si>
+  <si>
+    <t>高品印粉</t>
+  </si>
+  <si>
+    <t>国内粉</t>
+  </si>
+  <si>
+    <t>国王粉</t>
+  </si>
+  <si>
+    <t>海南粉</t>
+  </si>
+  <si>
+    <t>海南块</t>
+  </si>
+  <si>
+    <t>韩国粉</t>
+  </si>
+  <si>
+    <t>洪都拉斯原矿</t>
+  </si>
+  <si>
+    <t>吉普森块</t>
+  </si>
+  <si>
+    <t>库宾粉</t>
+  </si>
+  <si>
+    <t>库宾块</t>
+  </si>
+  <si>
+    <t>利比里亚粗粉</t>
+  </si>
+  <si>
+    <t>马来块</t>
+  </si>
+  <si>
+    <t>马来西亚原矿</t>
+  </si>
+  <si>
+    <t>毛塔利亚粉</t>
+  </si>
+  <si>
+    <t>毛塔利亚块</t>
+  </si>
+  <si>
+    <t>秘鲁粗粉</t>
+  </si>
+  <si>
+    <t>秘鲁块</t>
+  </si>
+  <si>
+    <t>内矿</t>
+  </si>
+  <si>
+    <t>塞尔维亚粉</t>
+  </si>
+  <si>
+    <t>塞拉利昂块</t>
+  </si>
+  <si>
+    <t>泰国粉矿</t>
+  </si>
+  <si>
+    <t>泰国块矿</t>
+  </si>
+  <si>
+    <t>铁矿粉</t>
+  </si>
+  <si>
+    <t>铁矿块</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
+  </si>
+  <si>
+    <t>土耳其块</t>
+  </si>
+  <si>
+    <t>托克粉</t>
+  </si>
+  <si>
+    <t>西班牙粗粉</t>
+  </si>
+  <si>
+    <t>西班牙粉矿</t>
+  </si>
+  <si>
+    <t>新西兰海砂</t>
+  </si>
+  <si>
+    <t>一钢粉</t>
+  </si>
+  <si>
+    <t>一钢块</t>
+  </si>
+  <si>
+    <t>印度粉</t>
+  </si>
+  <si>
+    <t>印尼粉</t>
+  </si>
+  <si>
+    <t>印尼块</t>
+  </si>
+  <si>
+    <t>印尼原矿</t>
+  </si>
+  <si>
+    <t>智利粉</t>
+  </si>
+  <si>
+    <t>烧结粉</t>
+  </si>
+  <si>
+    <t>细粉</t>
+  </si>
+  <si>
+    <t>美国粉</t>
+  </si>
+  <si>
+    <t>匹粉</t>
+  </si>
+  <si>
+    <t>pB粉</t>
+  </si>
+  <si>
+    <t>匹砂</t>
+  </si>
+  <si>
+    <t>MAC粉</t>
+  </si>
+  <si>
+    <t>BRBF</t>
+  </si>
+  <si>
+    <t>JMB粉</t>
+  </si>
+  <si>
+    <t>罗伊粉</t>
+  </si>
+  <si>
+    <t>罗伊块</t>
+  </si>
+  <si>
+    <t>罗伊山块矿</t>
+  </si>
+  <si>
+    <t>低品乌克兰精粉</t>
+  </si>
+  <si>
+    <t>俄精粉</t>
+  </si>
+  <si>
+    <t>高品乌克兰精粉</t>
+  </si>
+  <si>
+    <t>马来西亚精粉</t>
+  </si>
+  <si>
+    <t>乌精粉/低品</t>
+  </si>
+  <si>
+    <t>乌精粉/高品</t>
+  </si>
+  <si>
+    <t>巴西CSN粉</t>
+  </si>
+  <si>
+    <t>CSN粉</t>
+  </si>
+  <si>
+    <t>SFHG粉矿</t>
+  </si>
+  <si>
+    <t>SFHT粉矿</t>
+  </si>
+  <si>
+    <t>SFNG粉矿</t>
+  </si>
+  <si>
+    <t>SSFG粉矿</t>
+  </si>
+  <si>
+    <t>SSFT粉矿</t>
+  </si>
+  <si>
+    <t>阿特拉斯粉</t>
+  </si>
+  <si>
+    <t>阿特拉斯块</t>
+  </si>
+  <si>
+    <t>奥混合粉</t>
+  </si>
+  <si>
+    <t>澳超特粉</t>
+  </si>
+  <si>
+    <t>澳国王粉</t>
+  </si>
+  <si>
+    <t>澳洲块矿</t>
+  </si>
+  <si>
+    <t>巴西粗粉IOC6</t>
+  </si>
+  <si>
+    <t>巴西粗粉IOCP</t>
+  </si>
+  <si>
+    <t>巴西高硅粗粉</t>
+  </si>
+  <si>
+    <t>巴西混合块</t>
+  </si>
+  <si>
+    <t>朝鲜粉矿</t>
+  </si>
+  <si>
+    <t>低品印粉</t>
+  </si>
+  <si>
+    <t>吉普森高硅块</t>
+  </si>
+  <si>
+    <t>加拿大粗粉</t>
+  </si>
+  <si>
+    <t>库斌快</t>
+  </si>
+  <si>
+    <t>马粉</t>
+  </si>
+  <si>
+    <t>马粉1.5舱</t>
+  </si>
+  <si>
+    <t>马粉2.4舱</t>
+  </si>
+  <si>
+    <t>马粉3舱</t>
+  </si>
+  <si>
+    <t>马块</t>
+  </si>
+  <si>
+    <t>马来粉</t>
+  </si>
+  <si>
+    <t>马来西亚粗粉</t>
+  </si>
+  <si>
+    <t>马来西亚粉矿</t>
+  </si>
+  <si>
+    <t>毛粉</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚粉</t>
+  </si>
+  <si>
+    <t>毛塔粉</t>
+  </si>
+  <si>
+    <t>秘鲁粉矿</t>
+  </si>
+  <si>
+    <t>秘鲁大粒块</t>
+  </si>
+  <si>
+    <t>秘鲁粉</t>
+  </si>
+  <si>
+    <t>秘鲁块矿</t>
+  </si>
+  <si>
+    <t>秘鲁烧结粉</t>
+  </si>
+  <si>
+    <t>塞拉利昂粗粉</t>
+  </si>
+  <si>
+    <t>土耳其块矿</t>
+  </si>
+  <si>
+    <t>委粉</t>
+  </si>
+  <si>
+    <t>委内瑞拉粗粉</t>
+  </si>
+  <si>
+    <t>委内瑞拉块矿</t>
+  </si>
+  <si>
+    <t>伊朗块矿</t>
+  </si>
+  <si>
+    <t>印度粗粉</t>
+  </si>
+  <si>
+    <t>印度粗粉1.3.4.5舱</t>
+  </si>
+  <si>
+    <t>印度粗粉/2.5.8舱</t>
+  </si>
+  <si>
+    <t>印度铁矿粉</t>
+  </si>
+  <si>
+    <t>印度粗粉/高品</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>印度粉矿</t>
+  </si>
+  <si>
+    <t>印尼粉矿</t>
+  </si>
+  <si>
+    <t>印尼块矿</t>
+  </si>
+  <si>
+    <t>智利块矿</t>
+  </si>
+  <si>
+    <t>澳球</t>
+  </si>
+  <si>
+    <t>巴西球团</t>
+  </si>
+  <si>
+    <t>印度球团矿</t>
+  </si>
+  <si>
+    <t>印度团矿</t>
+  </si>
+  <si>
+    <t>国内铁矿砂</t>
+  </si>
+  <si>
+    <t>JB粉</t>
+  </si>
+  <si>
+    <t>新西兰海砂粉</t>
+  </si>
+  <si>
+    <t>墨西哥块/3舱</t>
+  </si>
+  <si>
+    <t>马来粉/块</t>
+  </si>
+  <si>
+    <t>澳库粉</t>
+  </si>
+  <si>
+    <t>伊朗块（高品）</t>
+  </si>
+  <si>
+    <t>洪都拉斯块</t>
+  </si>
+  <si>
+    <t>秘鲁烧结</t>
+  </si>
+  <si>
+    <t>巴粗、巴精</t>
+  </si>
+  <si>
+    <t>库里安诺宾块</t>
+  </si>
+  <si>
+    <t>库里安诺宾粉</t>
+  </si>
+  <si>
+    <t>毛利卡利亚粉</t>
+  </si>
+  <si>
+    <t>美国粉/块</t>
+  </si>
+  <si>
+    <t>印尼矿</t>
+  </si>
+  <si>
+    <t>FMG</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>澳麦克粉</t>
+  </si>
+  <si>
+    <t>澳罗泊河粉</t>
+  </si>
+  <si>
+    <t>澳粉、澳块</t>
+  </si>
+  <si>
+    <t>金巴布粉</t>
+  </si>
+  <si>
+    <t>巴卡</t>
+  </si>
+  <si>
+    <t>秘鲁新区大粗粒度块</t>
+  </si>
+  <si>
+    <t>巴西快</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1704,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1672,7 +2092,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1682,42 +2102,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1732,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1745,632 +2165,1282 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2391,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,437 +3782,437 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -3152,367 +4222,367 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
@@ -3522,197 +4592,197 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
@@ -3722,7 +4792,7 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
@@ -3732,237 +4802,267 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>398</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3976,7 +5076,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4001,7 +5101,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4011,12 +5111,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4039,7 +5139,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4076,10 +5176,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F18" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4088,8 +5188,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4103,10 +5278,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4115,8 +5290,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4130,10 +5325,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4143,22 +5338,392 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/分类名录.xlsx
+++ b/分类名录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分类种类" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="538">
   <si>
     <t>PB粉</t>
   </si>
@@ -1364,9 +1364,6 @@
   </si>
   <si>
     <t>匹粉</t>
-  </si>
-  <si>
-    <t>pB粉</t>
   </si>
   <si>
     <t>匹砂</t>
@@ -2152,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A256"/>
+  <dimension ref="A1:A255"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2175,57 +2172,57 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -2240,42 +2237,42 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -2285,87 +2282,87 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>452</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>454</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -2375,72 +2372,72 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>456</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>388</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>457</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>394</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -2460,12 +2457,12 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>462</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -2490,92 +2487,92 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>467</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>468</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>469</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -2585,12 +2582,12 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
@@ -2600,147 +2597,147 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>473</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>401</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>406</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>408</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>477</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
@@ -2755,17 +2752,17 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>481</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
@@ -2780,12 +2777,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
@@ -2795,12 +2792,12 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -2810,32 +2807,32 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>488</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>490</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>122</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
@@ -2845,12 +2842,12 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>492</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -2860,82 +2857,82 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>494</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>79</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>495</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>421</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
@@ -2945,82 +2942,82 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>498</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>498</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>430</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>110</v>
+        <v>432</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>115</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>500</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>391</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
@@ -3055,102 +3052,102 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>507</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>142</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>437</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>146</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>431</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>431</v>
+        <v>88</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
@@ -3160,27 +3157,27 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>512</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>390</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>172</v>
+        <v>512</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
@@ -3190,52 +3187,52 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>514</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>125</v>
+        <v>514</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>515</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>136</v>
+        <v>515</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>516</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>141</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>517</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>163</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
@@ -3300,12 +3297,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>530</v>
+        <v>441</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>441</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
@@ -3340,106 +3337,101 @@
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>537</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>384</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>404</v>
+        <v>537</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>538</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>434</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>171</v>
+        <v>418</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>427</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5280,7 +5272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
